--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Processors</t>
   </si>
@@ -51,13 +51,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -104,23 +110,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -132,9 +132,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -445,26 +442,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,34 +481,36 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>0.59</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>0.83</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1.63</v>
       </c>
       <c r="E2" s="3"/>
@@ -521,34 +520,34 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4">
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="N2" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="O2" s="5">
-        <v>70.897</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1130.273</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>7.258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="4">
+      <c r="M2" s="5">
+        <v>2.276715292</v>
+      </c>
+      <c r="N2" s="6">
+        <v>77.728919628</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1130.27</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6">
+        <v>6.945888505</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>1.211</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>4.271</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>5.237</v>
       </c>
       <c r="E3" s="3"/>
@@ -558,30 +557,36 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4">
+      <c r="L3" s="7">
         <v>4</v>
       </c>
-      <c r="N3" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="5">
-        <v>2.536</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="4">
+      <c r="M3" s="5">
+        <v>1.021097089</v>
+      </c>
+      <c r="N3" s="6">
+        <v>5.355240264</v>
+      </c>
+      <c r="O3" s="6">
+        <v>84.83859675</v>
+      </c>
+      <c r="P3" s="2">
+        <v>430.224393396</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1.151381103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1.762</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>5.416</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>6.846</v>
       </c>
       <c r="E4" s="3"/>
@@ -591,30 +596,36 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4">
+      <c r="L4" s="7">
         <v>8</v>
       </c>
+      <c r="M4" s="5">
+        <v>1.083257552</v>
+      </c>
       <c r="N4" s="6">
-        <v>1.64</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="5">
-        <v>5.449</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="4">
+        <v>2.100642401</v>
+      </c>
+      <c r="O4" s="6">
+        <v>10.457257692</v>
+      </c>
+      <c r="P4" s="2">
+        <v>49.523746785</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1.15385035</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>6.403</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>4.615</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>8.687</v>
       </c>
       <c r="E5" s="3"/>
@@ -624,30 +635,36 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4">
+      <c r="L5" s="7">
         <v>16</v>
       </c>
+      <c r="M5" s="5">
+        <v>2.36153176</v>
+      </c>
       <c r="N5" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="4">
+        <v>3.435106646</v>
+      </c>
+      <c r="O5" s="6">
+        <v>8.036156634</v>
+      </c>
+      <c r="P5" s="2">
+        <v>17.875680324</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2.444618651</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="5">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>5.744</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>7.792</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>16.368</v>
       </c>
       <c r="E6" s="3"/>
@@ -657,28 +674,36 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4">
+      <c r="L6" s="7">
         <v>24</v>
       </c>
+      <c r="M6" s="5">
+        <v>3.410922349</v>
+      </c>
       <c r="N6" s="6">
-        <v>4.55</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="4">
+        <v>5.276607602</v>
+      </c>
+      <c r="O6" s="6">
+        <v>10.685118809</v>
+      </c>
+      <c r="P6" s="2">
+        <v>13.456704091</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>3.519678376</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5">
         <v>32</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>10.603</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>12.252</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>26.656</v>
       </c>
       <c r="E7" s="3"/>
@@ -688,28 +713,36 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4">
+      <c r="L7" s="7">
         <v>32</v>
       </c>
+      <c r="M7" s="5">
+        <v>4.380591207</v>
+      </c>
       <c r="N7" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="4">
+        <v>10.21127001</v>
+      </c>
+      <c r="O7" s="6">
+        <v>9.933829021</v>
+      </c>
+      <c r="P7" s="2">
+        <v>21.850149794</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>4.590294012</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5">
         <v>50</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>15.001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>22.403</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>42.487</v>
       </c>
       <c r="E8" s="3"/>
@@ -719,28 +752,36 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4">
+      <c r="L8" s="7">
         <v>50</v>
       </c>
+      <c r="M8" s="5">
+        <v>7.093101145</v>
+      </c>
       <c r="N8" s="6">
-        <v>8.94</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="4">
+        <v>22.585542197</v>
+      </c>
+      <c r="O8" s="6">
+        <v>48.956696874</v>
+      </c>
+      <c r="P8" s="2">
+        <v>32.47876</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>9.062999419</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5">
         <v>64</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>16.677</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>29.754</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>61.345</v>
       </c>
       <c r="E9" s="3"/>
@@ -750,20 +791,30 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4">
+      <c r="L9" s="7">
         <v>64</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="M9" s="5">
+        <v>8.834299172</v>
+      </c>
+      <c r="N9" s="6">
+        <v>30.285243009</v>
+      </c>
+      <c r="O9" s="6">
+        <v>21.503548245</v>
+      </c>
+      <c r="P9" s="2">
+        <v>29.477288271</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>9.39204916</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -771,18 +822,18 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -790,18 +841,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -809,20 +860,20 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -830,14 +881,14 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,24 +908,24 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="4">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <f>0.59/0.59</f>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <f>0.83/0.83</f>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <f>1.63/1.63</f>
       </c>
       <c r="E15" s="3"/>
@@ -884,24 +935,24 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="4">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="5">
         <v>4</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <f>0.59/1.211</f>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <f>0.83/4.271</f>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <f>1.63/5.237</f>
       </c>
       <c r="E16" s="3"/>
@@ -911,24 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="4">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <f>0.59/1.762</f>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <f>0.83/5.416</f>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <f>1.63/6.846</f>
       </c>
       <c r="E17" s="3"/>
@@ -938,24 +989,24 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="4">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <f>0.59/6.403</f>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <f>0.83/4.615</f>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <f>1.63/8.687</f>
       </c>
       <c r="E18" s="3"/>
@@ -965,24 +1016,24 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="4">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="5">
         <v>24</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <f>0.59/5.744</f>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <f>0.83/7.792</f>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <f>1.63/16.368</f>
       </c>
       <c r="E19" s="3"/>
@@ -992,24 +1043,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="4">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="5">
         <v>32</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <f>0.59/10.603</f>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <f>0.83/12.252</f>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <f>1.63/26.656</f>
       </c>
       <c r="E20" s="3"/>
@@ -1019,24 +1070,24 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="4">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="5">
         <v>50</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <f>0.59/15.001</f>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <f>0.83/22.403</f>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <f>1.63/42.487</f>
       </c>
       <c r="E21" s="3"/>
@@ -1046,24 +1097,24 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="4">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="5">
         <v>64</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <f>0.59/16.677</f>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <f>0.83/29.754</f>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <f>1.63/61.345</f>
       </c>
       <c r="E22" s="3"/>
@@ -1073,18 +1124,18 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1092,18 +1143,18 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="9"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1111,18 +1162,18 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1130,20 +1181,20 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="9"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1151,14 +1202,14 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,24 +1229,24 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="4">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <f>B15/A15</f>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <f>C15/A15</f>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <f>D15/A15</f>
       </c>
       <c r="E28" s="3"/>
@@ -1205,24 +1256,24 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="4">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <f>B16/A16</f>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <f>C16/A16</f>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <f>D16/A16</f>
       </c>
       <c r="E29" s="3"/>
@@ -1232,24 +1283,24 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="4">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="5">
         <v>8</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <f>B17/A17</f>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <f>C17/A17</f>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <f>D17/A17</f>
       </c>
       <c r="E30" s="3"/>
@@ -1259,24 +1310,24 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="4">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="5">
         <v>16</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <f>B18/A18</f>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <f>C18/A18</f>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <f>D18/A18</f>
       </c>
       <c r="E31" s="3"/>
@@ -1286,24 +1337,24 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="9"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="4">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="5">
         <v>24</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <f>B19/A19</f>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <f>C19/A19</f>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <f>D19/A19</f>
       </c>
       <c r="E32" s="3"/>
@@ -1313,24 +1364,24 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="4">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <f>B20/A20</f>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <f>C20/A20</f>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <f>D20/A20</f>
       </c>
       <c r="E33" s="3"/>
@@ -1340,24 +1391,24 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="4">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="5">
         <v>50</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <f>B21/A21</f>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="6">
         <f>C21/A21</f>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <f>D21/A21</f>
       </c>
       <c r="E34" s="3"/>
@@ -1367,24 +1418,24 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="9"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="4">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="5">
         <v>64</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <f>B22/A22</f>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <f>C22/A22</f>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <f>D22/A22</f>
       </c>
       <c r="E35" s="3"/>
@@ -1394,8 +1445,8 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="9"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -532,7 +532,9 @@
       <c r="O2" s="6">
         <v>1130.27</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="6">
+        <v>9874.46</v>
+      </c>
       <c r="Q2" s="6">
         <v>6.945888505</v>
       </c>
